--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据导入.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据导入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lys_Desktop\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Github\kasugaharu\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37850126-408F-4A92-AED4-EDEA4CBFBC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E61774A-66A2-42C5-8881-6717CFA48D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导入数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
   <si>
     <t>序号</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>正常</t>
-  </si>
-  <si>
-    <t>3607232017304031048</t>
   </si>
   <si>
     <t>袁贵安</t>
@@ -869,28 +866,28 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -943,7 +940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -954,7 +951,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -966,7 +963,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -979,30 +976,30 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1015,30 +1012,30 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="15.6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1051,30 +1048,30 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1087,30 +1084,30 @@
       </c>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1123,30 +1120,30 @@
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="H7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1159,30 +1156,30 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1195,30 +1192,30 @@
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1231,30 +1228,30 @@
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1267,30 +1264,30 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1303,30 +1300,30 @@
       </c>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1339,30 +1336,30 @@
       </c>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1375,30 +1372,30 @@
       </c>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1411,30 +1408,30 @@
       </c>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1447,30 +1444,30 @@
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="H16" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1483,30 +1480,30 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="H17" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>

--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据导入.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据导入.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Github\kasugaharu\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E61774A-66A2-42C5-8881-6717CFA48D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200335A-51D4-4409-860A-D21C5949909C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>序号</t>
   </si>
@@ -393,6 +393,10 @@
   </si>
   <si>
     <t>36232420021121XXXX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3607232017304031046</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +870,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -945,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>17</v>
@@ -1533,5 +1537,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>